--- a/ig/ch-epr-fhir/StructureDefinition-DicomStudyInstanceUidIdentifier.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-DicomStudyInstanceUidIdentifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -403,7 +403,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>CX.5</t>
@@ -496,7 +496,7 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -849,7 +849,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="24.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -864,7 +864,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="38.1484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
